--- a/input/ICDs/ICDMapping.xlsx
+++ b/input/ICDs/ICDMapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xc170f\Documents\FDA\vscode\qardecode\input\ICDs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE5E7B3-44B5-455E-A1A1-5DFD8F4B8FB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A007D5-E069-4345-A2EF-A52D6408102A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICDMapping2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="278">
   <si>
     <t>TailNumber</t>
   </si>
@@ -313,7 +313,7 @@
     <t>747_CLXRR_ICD.xlsx</t>
   </si>
   <si>
-    <t>747_G_AZG_ICD.xlsx</t>
+    <t>4kbch</t>
   </si>
   <si>
     <t>747_1024_ARDCOL_ICD.xlsx</t>
@@ -766,6 +766,18 @@
     <t>a4omm</t>
   </si>
   <si>
+    <t>4kbci</t>
+  </si>
+  <si>
+    <t>4kbcv</t>
+  </si>
+  <si>
+    <t>747_64wps_AZG_ICD.xlsx</t>
+  </si>
+  <si>
+    <t>747_G_ICD.xlsx</t>
+  </si>
+  <si>
     <t>a7bgb</t>
   </si>
   <si>
@@ -778,70 +790,70 @@
     <t>zaawb</t>
   </si>
   <si>
-    <t>737_5_AWT_AWBnew_ALC_ICD.xlsx</t>
-  </si>
-  <si>
-    <t>737_1_AWT_ALB_ICD.xlsx</t>
-  </si>
-  <si>
-    <t>737_5_AWT_AWBold_ICD.xlsx</t>
-  </si>
-  <si>
-    <t>gdhlx</t>
-  </si>
-  <si>
-    <t>777_DHL_ICD.xlsx</t>
-  </si>
-  <si>
-    <t>gdhly</t>
-  </si>
-  <si>
-    <t>gdhlw</t>
-  </si>
-  <si>
-    <t>777_KAC_ICD.xlsx</t>
-  </si>
-  <si>
-    <t>9kaoc</t>
-  </si>
-  <si>
-    <t>9kaod</t>
-  </si>
-  <si>
-    <t>9kaoe</t>
-  </si>
-  <si>
-    <t>9kaoh</t>
-  </si>
-  <si>
-    <t>9kaoi</t>
-  </si>
-  <si>
-    <t>9kaoj</t>
-  </si>
-  <si>
-    <t>9kaok</t>
-  </si>
-  <si>
-    <t>9kaol</t>
-  </si>
-  <si>
-    <t>9kaom</t>
+    <t>4ksw800</t>
+  </si>
+  <si>
+    <t>4ksw888</t>
+  </si>
+  <si>
+    <t>737_1__AWT_ALB_ICD.xlsx</t>
+  </si>
+  <si>
+    <t>737_5_AWT_AWB_ICD.xlsx</t>
+  </si>
+  <si>
+    <t>747_E_ICD.xlsx</t>
   </si>
   <si>
     <t>9kaof</t>
   </si>
   <si>
-    <t>777_KAC_AOF_v2_ICD.xlsx</t>
-  </si>
-  <si>
-    <t>a7bog</t>
-  </si>
-  <si>
-    <t>4kbcv</t>
+    <t>777_KAC_AOF_ICD.xlsx</t>
+  </si>
+  <si>
+    <t>gbmra</t>
+  </si>
+  <si>
+    <t>757_dhl_ICD.xlsx</t>
+  </si>
+  <si>
+    <t>gbmrd</t>
+  </si>
+  <si>
+    <t>gbmri</t>
+  </si>
+  <si>
+    <t>gbmrj</t>
+  </si>
+  <si>
+    <t>gbmrb</t>
+  </si>
+  <si>
+    <t>gdhln</t>
+  </si>
+  <si>
+    <t>767_DHL_AppD_ICD.xlsx</t>
   </si>
   <si>
     <t>a7bsh</t>
+  </si>
+  <si>
+    <t>a7bsb</t>
+  </si>
+  <si>
+    <t>a7bsc</t>
+  </si>
+  <si>
+    <t>a7bsd</t>
+  </si>
+  <si>
+    <t>a7bse</t>
+  </si>
+  <si>
+    <t>a7bsg</t>
+  </si>
+  <si>
+    <t>a7bsi</t>
   </si>
 </sst>
 </file>
@@ -1692,15 +1704,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B253"/>
+  <dimension ref="A1:B256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="A253" sqref="A253"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -2353,199 +2365,199 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
       <c r="B82" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>273</v>
       </c>
       <c r="B83" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>274</v>
       </c>
       <c r="B84" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>275</v>
       </c>
       <c r="B85" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>276</v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>271</v>
       </c>
       <c r="B87" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>277</v>
       </c>
       <c r="B88" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>272</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>89</v>
       </c>
       <c r="B94" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>92</v>
+        <v>251</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>104</v>
+        <v>249</v>
       </c>
       <c r="B96" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>105</v>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>106</v>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="B98" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>107</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="B99" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>108</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="B100" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>109</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="B101" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>110</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="B102" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>111</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>112</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>113</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B106" t="s">
         <v>92</v>
@@ -2553,7 +2565,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B107" t="s">
         <v>92</v>
@@ -2561,47 +2573,47 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B113" t="s">
         <v>92</v>
@@ -2609,7 +2621,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B114" t="s">
         <v>92</v>
@@ -2617,135 +2629,135 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B131" t="s">
         <v>32</v>
@@ -2753,7 +2765,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B132" t="s">
         <v>32</v>
@@ -2761,191 +2773,191 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B141" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B144" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B145" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B146" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>248</v>
+        <v>144</v>
       </c>
       <c r="B147" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B156" t="s">
         <v>156</v>
@@ -2953,23 +2965,23 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>160</v>
+        <v>252</v>
       </c>
       <c r="B158" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B159" t="s">
         <v>156</v>
@@ -2977,7 +2989,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B160" t="s">
         <v>156</v>
@@ -2985,7 +2997,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B161" t="s">
         <v>156</v>
@@ -2993,7 +3005,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B162" t="s">
         <v>156</v>
@@ -3001,7 +3013,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B163" t="s">
         <v>156</v>
@@ -3009,7 +3021,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B164" t="s">
         <v>156</v>
@@ -3017,7 +3029,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B165" t="s">
         <v>156</v>
@@ -3025,7 +3037,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B166" t="s">
         <v>156</v>
@@ -3033,7 +3045,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B167" t="s">
         <v>156</v>
@@ -3041,7 +3053,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B168" t="s">
         <v>156</v>
@@ -3049,7 +3061,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B169" t="s">
         <v>156</v>
@@ -3057,7 +3069,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B170" t="s">
         <v>156</v>
@@ -3065,7 +3077,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B171" t="s">
         <v>156</v>
@@ -3073,7 +3085,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="B172" t="s">
         <v>156</v>
@@ -3081,7 +3093,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B173" t="s">
         <v>156</v>
@@ -3089,7 +3101,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B174" t="s">
         <v>156</v>
@@ -3097,7 +3109,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B175" t="s">
         <v>156</v>
@@ -3105,7 +3117,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B176" t="s">
         <v>156</v>
@@ -3113,7 +3125,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B177" t="s">
         <v>156</v>
@@ -3121,7 +3133,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="B178" t="s">
         <v>156</v>
@@ -3129,7 +3141,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B179" t="s">
         <v>156</v>
@@ -3137,7 +3149,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B180" t="s">
         <v>156</v>
@@ -3145,7 +3157,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B181" t="s">
         <v>156</v>
@@ -3153,7 +3165,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B182" t="s">
         <v>156</v>
@@ -3161,7 +3173,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B183" t="s">
         <v>156</v>
@@ -3169,7 +3181,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="B184" t="s">
         <v>156</v>
@@ -3177,7 +3189,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="B185" t="s">
         <v>156</v>
@@ -3185,7 +3197,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>271</v>
+        <v>186</v>
       </c>
       <c r="B186" t="s">
         <v>156</v>
@@ -3193,7 +3205,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B187" t="s">
         <v>156</v>
@@ -3201,7 +3213,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B188" t="s">
         <v>156</v>
@@ -3209,7 +3221,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B189" t="s">
         <v>156</v>
@@ -3217,7 +3229,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B190" t="s">
         <v>156</v>
@@ -3225,7 +3237,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B191" t="s">
         <v>156</v>
@@ -3233,7 +3245,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B192" t="s">
         <v>156</v>
@@ -3241,7 +3253,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B193" t="s">
         <v>156</v>
@@ -3249,7 +3261,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B194" t="s">
         <v>156</v>
@@ -3257,7 +3269,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B195" t="s">
         <v>156</v>
@@ -3265,7 +3277,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="B196" t="s">
         <v>156</v>
@@ -3273,7 +3285,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B197" t="s">
         <v>156</v>
@@ -3281,7 +3293,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B198" t="s">
         <v>156</v>
@@ -3289,7 +3301,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B199" t="s">
         <v>156</v>
@@ -3297,7 +3309,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B200" t="s">
         <v>156</v>
@@ -3305,7 +3317,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B201" t="s">
         <v>156</v>
@@ -3313,7 +3325,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B202" t="s">
         <v>156</v>
@@ -3321,7 +3333,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B203" t="s">
         <v>156</v>
@@ -3329,7 +3341,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B204" t="s">
         <v>156</v>
@@ -3337,7 +3349,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="B205" t="s">
         <v>156</v>
@@ -3345,7 +3357,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B206" t="s">
         <v>156</v>
@@ -3353,7 +3365,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B207" t="s">
         <v>156</v>
@@ -3361,7 +3373,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B208" t="s">
         <v>156</v>
@@ -3369,7 +3381,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B209" t="s">
         <v>156</v>
@@ -3377,7 +3389,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B210" t="s">
         <v>156</v>
@@ -3385,7 +3397,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B211" t="s">
         <v>156</v>
@@ -3393,7 +3405,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B212" t="s">
         <v>156</v>
@@ -3401,7 +3413,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B213" t="s">
         <v>156</v>
@@ -3409,7 +3421,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B214" t="s">
         <v>156</v>
@@ -3417,7 +3429,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B215" t="s">
         <v>156</v>
@@ -3425,7 +3437,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B216" t="s">
         <v>156</v>
@@ -3433,7 +3445,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B217" t="s">
         <v>156</v>
@@ -3441,7 +3453,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B218" t="s">
         <v>156</v>
@@ -3449,7 +3461,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B219" t="s">
         <v>156</v>
@@ -3457,7 +3469,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B220" t="s">
         <v>156</v>
@@ -3465,7 +3477,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B221" t="s">
         <v>156</v>
@@ -3473,7 +3485,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B222" t="s">
         <v>156</v>
@@ -3481,7 +3493,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B223" t="s">
         <v>156</v>
@@ -3489,7 +3501,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="B224" t="s">
         <v>156</v>
@@ -3497,7 +3509,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B225" t="s">
         <v>156</v>
@@ -3505,7 +3517,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B226" t="s">
         <v>156</v>
@@ -3513,7 +3525,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B227" t="s">
         <v>156</v>
@@ -3521,7 +3533,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="B228" t="s">
         <v>156</v>
@@ -3529,7 +3541,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="B229" t="s">
         <v>156</v>
@@ -3537,7 +3549,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="B230" t="s">
         <v>156</v>
@@ -3545,7 +3557,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="B231" t="s">
         <v>156</v>
@@ -3553,7 +3565,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B232" t="s">
         <v>156</v>
@@ -3561,7 +3573,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B233" t="s">
         <v>156</v>
@@ -3569,7 +3581,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B234" t="s">
         <v>156</v>
@@ -3577,7 +3589,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B235" t="s">
         <v>156</v>
@@ -3585,7 +3597,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B236" t="s">
         <v>156</v>
@@ -3593,95 +3605,95 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>253</v>
+        <v>156</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>252</v>
+        <v>156</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B239" t="s">
-        <v>254</v>
+        <v>156</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="B240" t="s">
-        <v>256</v>
+        <v>156</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="B241" t="s">
-        <v>256</v>
+        <v>156</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="B242" t="s">
-        <v>256</v>
+        <v>156</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="B243" t="s">
-        <v>259</v>
+        <v>156</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="B244" t="s">
-        <v>259</v>
+        <v>156</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>259</v>
+        <v>156</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="B246" t="s">
-        <v>259</v>
+        <v>156</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B247" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B248" t="s">
         <v>259</v>
@@ -3689,7 +3701,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B249" t="s">
         <v>259</v>
@@ -3697,34 +3709,58 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B250" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B251" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B252" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B253" t="s">
-        <v>34</v>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>266</v>
+      </c>
+      <c r="B254" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>267</v>
+      </c>
+      <c r="B255" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>269</v>
+      </c>
+      <c r="B256" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
